--- a/Project_Sheets/Booked_Hours_Matt dai.xlsx
+++ b/Project_Sheets/Booked_Hours_Matt dai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\CITS3200\Project_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FFADD-8AB9-403C-A368-7188595D4FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECBE4C2-34DC-47A7-B0C4-ED88FADD9B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="3855" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>mentor meeting and group meeting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group meeting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning database and prepare the envirnoment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create login table and do some test</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -370,9 +382,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -394,6 +403,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -612,7 +624,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -630,16 +642,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -660,24 +672,24 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1"/>
@@ -700,7 +712,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,9 +725,9 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1402,23 +1414,35 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="6" t="str">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="29">
+        <v>44795</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44795</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="6">
         <f>IF(I18&gt;0,I18,IF(I18=0," ","ERROR"))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H18" s="1" t="str">
+        <v>0.41666666662786156</v>
+      </c>
+      <c r="H18" s="1">
         <f>IF(AND(G18&lt;&gt;" ",G18&lt;&gt;"ERROR",H17&lt;&gt;" ",H17&lt;&gt;"ERROR"),G18+H17," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>8.7666666666045785</v>
       </c>
       <c r="I18" s="1">
         <f>((D18+E18)-(B18+C18))*24</f>
-        <v>0</v>
+        <v>0.41666666662786156</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1440,22 +1464,32 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="6" t="str">
+      <c r="B19" s="4">
+        <v>44798</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44798</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H19" s="1" t="str">
+        <v>1.9999999998835847</v>
+      </c>
+      <c r="H19" s="1">
         <f>IF(AND(G19&lt;&gt;" ",G19&lt;&gt;"ERROR",H18&lt;&gt;" ",H18&lt;&gt;"ERROR"),G19+H18," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>10.766666666488163</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9999999998835847</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1477,22 +1511,32 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="6" t="str">
+      <c r="B20" s="4">
+        <v>44799</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44799</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H20" s="1" t="str">
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>11.766666666429956</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.99999999994179234</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1883,24 +1927,24 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="21"/>
+      <c r="F31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="1" t="e">
@@ -1926,7 +1970,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1939,9 +1983,9 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -3149,24 +3193,24 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="21" t="s">
+      <c r="C65" s="21"/>
+      <c r="D65" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="19" t="s">
+      <c r="E65" s="21"/>
+      <c r="F65" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I65" s="1" t="e">
@@ -3192,7 +3236,7 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
@@ -3205,9 +3249,9 @@
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -4415,24 +4459,24 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="21" t="s">
+      <c r="C99" s="21"/>
+      <c r="D99" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="19" t="s">
+      <c r="E99" s="21"/>
+      <c r="F99" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="19" t="s">
+      <c r="G99" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="19" t="s">
+      <c r="H99" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I99" s="1" t="e">
@@ -4458,7 +4502,7 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="20"/>
+      <c r="A100" s="19"/>
       <c r="B100" s="2" t="s">
         <v>7</v>
       </c>
@@ -4471,9 +4515,9 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
       <c r="I100" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -29986,6 +30030,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D99:E99"/>
@@ -30002,15 +30055,6 @@
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="G65:G66"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
